--- a/quantifyVagusNerve/Plots/T4transport/complete_local_linhom_sector_horizontal1_2/complete_local_linhom_sector_horizontal1_2_all_result.xlsx
+++ b/quantifyVagusNerve/Plots/T4transport/complete_local_linhom_sector_horizontal1_2/complete_local_linhom_sector_horizontal1_2_all_result.xlsx
@@ -344,88 +344,88 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.514582757152464</v>
+        <v>0.0977145553810697</v>
       </c>
       <c r="C1" t="n">
-        <v>0.47566596515665</v>
+        <v>0.269285412412076</v>
       </c>
       <c r="D1" t="n">
-        <v>0.433854285462302</v>
+        <v>0.294658557323879</v>
       </c>
       <c r="E1" t="n">
-        <v>0.461732764788267</v>
+        <v>0.270068347739763</v>
       </c>
       <c r="F1" t="n">
-        <v>0.448309578793741</v>
+        <v>0.0880923279071262</v>
       </c>
       <c r="G1" t="n">
-        <v>0.422634804131193</v>
+        <v>0.134857787685516</v>
       </c>
       <c r="H1" t="n">
-        <v>0.493359564544946</v>
+        <v>0.0838683027672493</v>
       </c>
       <c r="I1" t="n">
-        <v>0.421295506172738</v>
+        <v>0.137885487291985</v>
       </c>
       <c r="J1" t="n">
-        <v>0.666551064222948</v>
+        <v>0.193334751808282</v>
       </c>
       <c r="K1" t="n">
-        <v>0.446938301071309</v>
+        <v>0.0533429468261593</v>
       </c>
       <c r="L1" t="n">
-        <v>0.487215069796716</v>
+        <v>0.158133259913403</v>
       </c>
       <c r="M1" t="n">
-        <v>0.478115983125073</v>
+        <v>0.0862378712597968</v>
       </c>
       <c r="N1" t="n">
-        <v>0.434341335018073</v>
+        <v>0.0887183815216618</v>
       </c>
       <c r="O1" t="n">
-        <v>0.473663191636639</v>
+        <v>0.102645444788914</v>
       </c>
       <c r="P1" t="n">
-        <v>0.445051426620173</v>
+        <v>0.0577636188071596</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.467900644553075</v>
+        <v>0.120625876111293</v>
       </c>
       <c r="R1" t="n">
-        <v>0.428964605211486</v>
+        <v>0.0603099125292848</v>
       </c>
       <c r="S1" t="n">
-        <v>0.46389004043103</v>
+        <v>0.109212184264893</v>
       </c>
       <c r="T1" t="n">
-        <v>0.506100827773514</v>
+        <v>0.0517043006498984</v>
       </c>
       <c r="U1" t="n">
-        <v>0.448382689566728</v>
+        <v>0.0396665855952933</v>
       </c>
       <c r="V1" t="n">
-        <v>0.420326756281162</v>
+        <v>0.0460275748270404</v>
       </c>
       <c r="W1" t="n">
-        <v>0.423349911441504</v>
+        <v>0.0601474748763292</v>
       </c>
       <c r="X1" t="n">
-        <v>0.435476164486794</v>
+        <v>0.0495860111944691</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.438461164601034</v>
+        <v>0.0790341260136308</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.447388258549264</v>
+        <v>0.0750522569502193</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.495194132659593</v>
+        <v>0.0868396262661563</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.464111927721783</v>
+        <v>0.0501167330262504</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.515546163269259</v>
+        <v>0.117192560046237</v>
       </c>
     </row>
     <row r="2">
@@ -436,85 +436,85 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.501071624025832</v>
+        <v>0.283301641197825</v>
       </c>
       <c r="D2" t="n">
-        <v>0.463057989213776</v>
+        <v>0.307536758201162</v>
       </c>
       <c r="E2" t="n">
-        <v>0.480052631553838</v>
+        <v>0.283706454495433</v>
       </c>
       <c r="F2" t="n">
-        <v>0.467111113829365</v>
+        <v>0.125524726222355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.442401666540443</v>
+        <v>0.16174871286666</v>
       </c>
       <c r="H2" t="n">
-        <v>0.53223569564123</v>
+        <v>0.12353103131042</v>
       </c>
       <c r="I2" t="n">
-        <v>0.454761754405884</v>
+        <v>0.165111861597573</v>
       </c>
       <c r="J2" t="n">
-        <v>0.648313501316931</v>
+        <v>0.212589253728901</v>
       </c>
       <c r="K2" t="n">
-        <v>0.542981228116281</v>
+        <v>0.105023666030545</v>
       </c>
       <c r="L2" t="n">
-        <v>0.505991307345705</v>
+        <v>0.181518175495062</v>
       </c>
       <c r="M2" t="n">
-        <v>0.51062114453637</v>
+        <v>0.124681520913469</v>
       </c>
       <c r="N2" t="n">
-        <v>0.456458339367435</v>
+        <v>0.126208938120065</v>
       </c>
       <c r="O2" t="n">
-        <v>0.493990211809589</v>
+        <v>0.136384741424417</v>
       </c>
       <c r="P2" t="n">
-        <v>0.477417842375352</v>
+        <v>0.107468688075513</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.494169052604817</v>
+        <v>0.150603794066154</v>
       </c>
       <c r="R2" t="n">
-        <v>0.466270000434927</v>
+        <v>0.108226255276021</v>
       </c>
       <c r="S2" t="n">
-        <v>0.488633603201977</v>
+        <v>0.141562417895479</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5041834901903</v>
+        <v>0.102603743287172</v>
       </c>
       <c r="U2" t="n">
-        <v>0.46798108777932</v>
+        <v>0.0983189996451697</v>
       </c>
       <c r="V2" t="n">
-        <v>0.471421427831092</v>
+        <v>0.101076182146559</v>
       </c>
       <c r="W2" t="n">
-        <v>0.453965299522656</v>
+        <v>0.108607122983347</v>
       </c>
       <c r="X2" t="n">
-        <v>0.450240493977563</v>
+        <v>0.102181666907503</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.463802847764726</v>
+        <v>0.119287155174948</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.471739442695017</v>
+        <v>0.117050102543648</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.508012023700495</v>
+        <v>0.124527204172663</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.491836373667608</v>
+        <v>0.103444374078476</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.528209954470472</v>
+        <v>0.14745955335929</v>
       </c>
     </row>
     <row r="3">
@@ -528,82 +528,82 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.441089938556334</v>
+        <v>0.386689732195661</v>
       </c>
       <c r="E3" t="n">
-        <v>0.458746400636462</v>
+        <v>0.370422599352705</v>
       </c>
       <c r="F3" t="n">
-        <v>0.444451109746205</v>
+        <v>0.281056627725824</v>
       </c>
       <c r="G3" t="n">
-        <v>0.419311760203923</v>
+        <v>0.296886992745071</v>
       </c>
       <c r="H3" t="n">
-        <v>0.513134738610977</v>
+        <v>0.277817142827362</v>
       </c>
       <c r="I3" t="n">
-        <v>0.429052489880292</v>
+        <v>0.29792447435026</v>
       </c>
       <c r="J3" t="n">
-        <v>0.636564065849923</v>
+        <v>0.326416880752556</v>
       </c>
       <c r="K3" t="n">
-        <v>0.512540955306175</v>
+        <v>0.26992956970444</v>
       </c>
       <c r="L3" t="n">
-        <v>0.485496651368108</v>
+        <v>0.307315645177872</v>
       </c>
       <c r="M3" t="n">
-        <v>0.488373812058017</v>
+        <v>0.280317737556576</v>
       </c>
       <c r="N3" t="n">
-        <v>0.435170075033536</v>
+        <v>0.280563094781764</v>
       </c>
       <c r="O3" t="n">
-        <v>0.471698418198073</v>
+        <v>0.284657420089891</v>
       </c>
       <c r="P3" t="n">
-        <v>0.454574260432582</v>
+        <v>0.273426016127689</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.474273294680406</v>
+        <v>0.291595617464035</v>
       </c>
       <c r="R3" t="n">
-        <v>0.444285217642142</v>
+        <v>0.272487519794564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.466605615422835</v>
+        <v>0.287416103229135</v>
       </c>
       <c r="T3" t="n">
-        <v>0.484841043883963</v>
+        <v>0.272464077238336</v>
       </c>
       <c r="U3" t="n">
-        <v>0.447070780131628</v>
+        <v>0.271849345457958</v>
       </c>
       <c r="V3" t="n">
-        <v>0.447474264021164</v>
+        <v>0.270188529950264</v>
       </c>
       <c r="W3" t="n">
-        <v>0.429898102784667</v>
+        <v>0.274087849595829</v>
       </c>
       <c r="X3" t="n">
-        <v>0.430798442560035</v>
+        <v>0.271349253751364</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.442167350535649</v>
+        <v>0.277556617139868</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.450175721087534</v>
+        <v>0.278040354984003</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.488532364529951</v>
+        <v>0.281426643120391</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.470292988884963</v>
+        <v>0.272205735385432</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.518886683649959</v>
+        <v>0.289268197115763</v>
       </c>
     </row>
     <row r="4">
@@ -620,79 +620,79 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.418648574964029</v>
+        <v>0.387102894107627</v>
       </c>
       <c r="F4" t="n">
-        <v>0.399859008548724</v>
+        <v>0.303152902438044</v>
       </c>
       <c r="G4" t="n">
-        <v>0.372498408370747</v>
+        <v>0.318471621554329</v>
       </c>
       <c r="H4" t="n">
-        <v>0.494813237180196</v>
+        <v>0.29978328389036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.381503022141602</v>
+        <v>0.317361758068585</v>
       </c>
       <c r="J4" t="n">
-        <v>0.61978952591125</v>
+        <v>0.342997093170621</v>
       </c>
       <c r="K4" t="n">
-        <v>0.483800496304425</v>
+        <v>0.293502055962615</v>
       </c>
       <c r="L4" t="n">
-        <v>0.447613562942196</v>
+        <v>0.328609059531199</v>
       </c>
       <c r="M4" t="n">
-        <v>0.45067996590253</v>
+        <v>0.299059102558486</v>
       </c>
       <c r="N4" t="n">
-        <v>0.391444259745469</v>
+        <v>0.301502471760654</v>
       </c>
       <c r="O4" t="n">
-        <v>0.431826436343946</v>
+        <v>0.309125936038789</v>
       </c>
       <c r="P4" t="n">
-        <v>0.412896311673277</v>
+        <v>0.295195875477868</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.431979031545184</v>
+        <v>0.311811029474709</v>
       </c>
       <c r="R4" t="n">
-        <v>0.411255625870345</v>
+        <v>0.296171748239449</v>
       </c>
       <c r="S4" t="n">
-        <v>0.425094919334814</v>
+        <v>0.308197234480532</v>
       </c>
       <c r="T4" t="n">
-        <v>0.449191002518079</v>
+        <v>0.296939934820915</v>
       </c>
       <c r="U4" t="n">
-        <v>0.404147163539128</v>
+        <v>0.291385108158159</v>
       </c>
       <c r="V4" t="n">
-        <v>0.402866125743026</v>
+        <v>0.296001361829959</v>
       </c>
       <c r="W4" t="n">
-        <v>0.384770829644992</v>
+        <v>0.295930433149302</v>
       </c>
       <c r="X4" t="n">
-        <v>0.38337930267198</v>
+        <v>0.297501406256721</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.399548837900981</v>
+        <v>0.300582633608378</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.405232935516994</v>
+        <v>0.296835719493857</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.451184532100708</v>
+        <v>0.300238314513817</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.429951937964742</v>
+        <v>0.294087217081231</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.476845977387401</v>
+        <v>0.311869848843007</v>
       </c>
     </row>
     <row r="5">
@@ -712,76 +712,76 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.423327031786543</v>
+        <v>0.282639223817342</v>
       </c>
       <c r="G5" t="n">
-        <v>0.397223118220482</v>
+        <v>0.298930917773962</v>
       </c>
       <c r="H5" t="n">
-        <v>0.495505546898116</v>
+        <v>0.285225073416492</v>
       </c>
       <c r="I5" t="n">
-        <v>0.404933944408199</v>
+        <v>0.299330810393241</v>
       </c>
       <c r="J5" t="n">
-        <v>0.622082370863584</v>
+        <v>0.325689434784148</v>
       </c>
       <c r="K5" t="n">
-        <v>0.501638424463719</v>
+        <v>0.272567800106579</v>
       </c>
       <c r="L5" t="n">
-        <v>0.465620356941654</v>
+        <v>0.312744991200367</v>
       </c>
       <c r="M5" t="n">
-        <v>0.471027156194838</v>
+        <v>0.280184160447499</v>
       </c>
       <c r="N5" t="n">
-        <v>0.412040922579075</v>
+        <v>0.281735894264848</v>
       </c>
       <c r="O5" t="n">
-        <v>0.45134862152506</v>
+        <v>0.291911212147611</v>
       </c>
       <c r="P5" t="n">
-        <v>0.436709513061967</v>
+        <v>0.275053442131538</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.451411963715283</v>
+        <v>0.293033893337178</v>
       </c>
       <c r="R5" t="n">
-        <v>0.425194291234208</v>
+        <v>0.275215819691446</v>
       </c>
       <c r="S5" t="n">
-        <v>0.449556492891521</v>
+        <v>0.29411479354758</v>
       </c>
       <c r="T5" t="n">
-        <v>0.465038846972737</v>
+        <v>0.273172888489982</v>
       </c>
       <c r="U5" t="n">
-        <v>0.424633599740985</v>
+        <v>0.271499328766684</v>
       </c>
       <c r="V5" t="n">
-        <v>0.425792125618241</v>
+        <v>0.278241144035147</v>
       </c>
       <c r="W5" t="n">
-        <v>0.409029332118577</v>
+        <v>0.27584649017846</v>
       </c>
       <c r="X5" t="n">
-        <v>0.409594666996954</v>
+        <v>0.279881592051378</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.421360638731706</v>
+        <v>0.285369585103372</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.427661865054423</v>
+        <v>0.277212504708302</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.467621245122</v>
+        <v>0.280764824219347</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.449054866819693</v>
+        <v>0.273646772056922</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.49342217352955</v>
+        <v>0.290189928218271</v>
       </c>
     </row>
     <row r="6">
@@ -804,73 +804,73 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.373631795651541</v>
+        <v>0.155912203680639</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48050986370169</v>
+        <v>0.115731090568259</v>
       </c>
       <c r="I6" t="n">
-        <v>0.385905524654969</v>
+        <v>0.159441305583418</v>
       </c>
       <c r="J6" t="n">
-        <v>0.616175548116162</v>
+        <v>0.208545192167426</v>
       </c>
       <c r="K6" t="n">
-        <v>0.489676424186083</v>
+        <v>0.0950219183141122</v>
       </c>
       <c r="L6" t="n">
-        <v>0.447454393311611</v>
+        <v>0.176488827995628</v>
       </c>
       <c r="M6" t="n">
-        <v>0.451649778621046</v>
+        <v>0.116889001021468</v>
       </c>
       <c r="N6" t="n">
-        <v>0.392285849047306</v>
+        <v>0.119570425310722</v>
       </c>
       <c r="O6" t="n">
-        <v>0.43396532716652</v>
+        <v>0.129995098369499</v>
       </c>
       <c r="P6" t="n">
-        <v>0.415669354953168</v>
+        <v>0.099083464920366</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.437031149511263</v>
+        <v>0.144787222623931</v>
       </c>
       <c r="R6" t="n">
-        <v>0.399198021616804</v>
+        <v>0.0992000460086447</v>
       </c>
       <c r="S6" t="n">
-        <v>0.428407730661904</v>
+        <v>0.135296329848204</v>
       </c>
       <c r="T6" t="n">
-        <v>0.450903110538173</v>
+        <v>0.0944853427131905</v>
       </c>
       <c r="U6" t="n">
-        <v>0.406614309231825</v>
+        <v>0.0895289999590543</v>
       </c>
       <c r="V6" t="n">
-        <v>0.409477793249765</v>
+        <v>0.0920947553130588</v>
       </c>
       <c r="W6" t="n">
-        <v>0.387824810949458</v>
+        <v>0.100372350801859</v>
       </c>
       <c r="X6" t="n">
-        <v>0.388177311981888</v>
+        <v>0.0940208936784749</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.401949578275959</v>
+        <v>0.112555888370492</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.408806302200115</v>
+        <v>0.109152038404766</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.454370077707037</v>
+        <v>0.117713431853909</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.434653820167036</v>
+        <v>0.0949011443381135</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.478158589650634</v>
+        <v>0.141042079237484</v>
       </c>
     </row>
     <row r="7">
@@ -896,70 +896,70 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.461330911663172</v>
+        <v>0.151944038985874</v>
       </c>
       <c r="I7" t="n">
-        <v>0.357166727765666</v>
+        <v>0.187403869130747</v>
       </c>
       <c r="J7" t="n">
-        <v>0.607656280434329</v>
+        <v>0.230112699650364</v>
       </c>
       <c r="K7" t="n">
-        <v>0.473926104961295</v>
+        <v>0.137468796887102</v>
       </c>
       <c r="L7" t="n">
-        <v>0.424790351093722</v>
+        <v>0.20203780024392</v>
       </c>
       <c r="M7" t="n">
-        <v>0.430449703354728</v>
+        <v>0.155004608475708</v>
       </c>
       <c r="N7" t="n">
-        <v>0.363544870793478</v>
+        <v>0.155283347789031</v>
       </c>
       <c r="O7" t="n">
-        <v>0.409896355413049</v>
+        <v>0.163379794550057</v>
       </c>
       <c r="P7" t="n">
-        <v>0.389242410998292</v>
+        <v>0.140225081909967</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.411152502066777</v>
+        <v>0.175145231981291</v>
       </c>
       <c r="R7" t="n">
-        <v>0.374716426564267</v>
+        <v>0.140599341475047</v>
       </c>
       <c r="S7" t="n">
-        <v>0.404340391500048</v>
+        <v>0.16743855375453</v>
       </c>
       <c r="T7" t="n">
-        <v>0.427022642234963</v>
+        <v>0.138115422103652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.379330027330052</v>
+        <v>0.134059382000464</v>
       </c>
       <c r="V7" t="n">
-        <v>0.383322476106147</v>
+        <v>0.139830639847107</v>
       </c>
       <c r="W7" t="n">
-        <v>0.358979740359152</v>
+        <v>0.141365651155515</v>
       </c>
       <c r="X7" t="n">
-        <v>0.354740232337091</v>
+        <v>0.137166223374638</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.374627023065469</v>
+        <v>0.15034655271842</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.381337741573525</v>
+        <v>0.14954149839856</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.432962561101467</v>
+        <v>0.155057473595928</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.41091983818263</v>
+        <v>0.137320065874185</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.467360849033105</v>
+        <v>0.172732975674305</v>
       </c>
     </row>
     <row r="8">
@@ -988,67 +988,67 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.470256582195397</v>
+        <v>0.156973042878957</v>
       </c>
       <c r="J8" t="n">
-        <v>0.656161355498421</v>
+        <v>0.206900911640473</v>
       </c>
       <c r="K8" t="n">
-        <v>0.538720165250729</v>
+        <v>0.0893983153350786</v>
       </c>
       <c r="L8" t="n">
-        <v>0.512785891494024</v>
+        <v>0.173632865249641</v>
       </c>
       <c r="M8" t="n">
-        <v>0.520163922219477</v>
+        <v>0.114949289610845</v>
       </c>
       <c r="N8" t="n">
-        <v>0.475626066550577</v>
+        <v>0.116753672844527</v>
       </c>
       <c r="O8" t="n">
-        <v>0.50818295690978</v>
+        <v>0.127282502851643</v>
       </c>
       <c r="P8" t="n">
-        <v>0.49149225487167</v>
+        <v>0.0955455069311893</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.507211985656625</v>
+        <v>0.142103720960808</v>
       </c>
       <c r="R8" t="n">
-        <v>0.476542303267322</v>
+        <v>0.0943625750218455</v>
       </c>
       <c r="S8" t="n">
-        <v>0.503105344566964</v>
+        <v>0.132425648354486</v>
       </c>
       <c r="T8" t="n">
-        <v>0.522682921203545</v>
+        <v>0.0904858139460561</v>
       </c>
       <c r="U8" t="n">
-        <v>0.486802964311986</v>
+        <v>0.0857587117636747</v>
       </c>
       <c r="V8" t="n">
-        <v>0.483189813436766</v>
+        <v>0.0883827603940567</v>
       </c>
       <c r="W8" t="n">
-        <v>0.473836847125713</v>
+        <v>0.0973788859131796</v>
       </c>
       <c r="X8" t="n">
-        <v>0.47149766932826</v>
+        <v>0.0909960798016823</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.484513047001151</v>
+        <v>0.109541847965702</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.490850219879217</v>
+        <v>0.107034727603565</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.524010502294067</v>
+        <v>0.11594252012966</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.508577929788968</v>
+        <v>0.0909845429665544</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.540878273688264</v>
+        <v>0.137939507667076</v>
       </c>
     </row>
     <row r="9">
@@ -1080,64 +1080,64 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.615013074607974</v>
+        <v>0.233539349350006</v>
       </c>
       <c r="K9" t="n">
-        <v>0.472268109589303</v>
+        <v>0.143786240018047</v>
       </c>
       <c r="L9" t="n">
-        <v>0.433583867377113</v>
+        <v>0.204581458053908</v>
       </c>
       <c r="M9" t="n">
-        <v>0.439024645079422</v>
+        <v>0.159054407777884</v>
       </c>
       <c r="N9" t="n">
-        <v>0.377180617435368</v>
+        <v>0.161490999578842</v>
       </c>
       <c r="O9" t="n">
-        <v>0.418405748639914</v>
+        <v>0.167016476247095</v>
       </c>
       <c r="P9" t="n">
-        <v>0.399863866198817</v>
+        <v>0.14557222070225</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.419408256081017</v>
+        <v>0.179534311693554</v>
       </c>
       <c r="R9" t="n">
-        <v>0.382851341300862</v>
+        <v>0.147167857989376</v>
       </c>
       <c r="S9" t="n">
-        <v>0.413066765421434</v>
+        <v>0.172243267834011</v>
       </c>
       <c r="T9" t="n">
-        <v>0.437241189543018</v>
+        <v>0.14497245986873</v>
       </c>
       <c r="U9" t="n">
-        <v>0.391142747884555</v>
+        <v>0.140802417179673</v>
       </c>
       <c r="V9" t="n">
-        <v>0.388270253566707</v>
+        <v>0.139808062612761</v>
       </c>
       <c r="W9" t="n">
-        <v>0.370551680770365</v>
+        <v>0.14658309235414</v>
       </c>
       <c r="X9" t="n">
-        <v>0.368538089050038</v>
+        <v>0.141784752740927</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.386596274985935</v>
+        <v>0.155310976381132</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.391414949209169</v>
+        <v>0.153603520052666</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.441496052123643</v>
+        <v>0.160832445060075</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.418321637692749</v>
+        <v>0.142831461658129</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.468245012277539</v>
+        <v>0.177903740194957</v>
       </c>
     </row>
     <row r="10">
@@ -1172,61 +1172,61 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.666161600809752</v>
+        <v>0.196883382714273</v>
       </c>
       <c r="L10" t="n">
-        <v>0.642037900365248</v>
+        <v>0.244184164444986</v>
       </c>
       <c r="M10" t="n">
-        <v>0.64551105559172</v>
+        <v>0.207460636707476</v>
       </c>
       <c r="N10" t="n">
-        <v>0.611067804895868</v>
+        <v>0.208190203171966</v>
       </c>
       <c r="O10" t="n">
-        <v>0.63737758623752</v>
+        <v>0.214891136612661</v>
       </c>
       <c r="P10" t="n">
-        <v>0.626971689284644</v>
+        <v>0.19785757696013</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.637609588822974</v>
+        <v>0.224209729374882</v>
       </c>
       <c r="R10" t="n">
-        <v>0.620397328834851</v>
+        <v>0.198586791785186</v>
       </c>
       <c r="S10" t="n">
-        <v>0.637359462476793</v>
+        <v>0.218404880354721</v>
       </c>
       <c r="T10" t="n">
-        <v>0.634705520020251</v>
+        <v>0.195544527212504</v>
       </c>
       <c r="U10" t="n">
-        <v>0.617134199799869</v>
+        <v>0.193287966626146</v>
       </c>
       <c r="V10" t="n">
-        <v>0.625940031653249</v>
+        <v>0.194656339198572</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6153365116646</v>
+        <v>0.19852405104274</v>
       </c>
       <c r="X10" t="n">
-        <v>0.611359097801472</v>
+        <v>0.195055246771935</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.616809369810452</v>
+        <v>0.204292760683792</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.627226312636862</v>
+        <v>0.203135961759341</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.639254398611657</v>
+        <v>0.20744823343307</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.635403601810633</v>
+        <v>0.196290690584612</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.652429690293918</v>
+        <v>0.221371949044026</v>
       </c>
     </row>
     <row r="11">
@@ -1264,58 +1264,58 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.527131312219071</v>
+        <v>0.16225450988812</v>
       </c>
       <c r="M11" t="n">
-        <v>0.512359365058459</v>
+        <v>0.0937606088359351</v>
       </c>
       <c r="N11" t="n">
-        <v>0.492607242177282</v>
+        <v>0.0997547986594558</v>
       </c>
       <c r="O11" t="n">
-        <v>0.522972847807258</v>
+        <v>0.110136708445053</v>
       </c>
       <c r="P11" t="n">
-        <v>0.504406699419624</v>
+        <v>0.0730740980231012</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.52787157632417</v>
+        <v>0.12852733255265</v>
       </c>
       <c r="R11" t="n">
-        <v>0.473734560699733</v>
+        <v>0.0689424431265459</v>
       </c>
       <c r="S11" t="n">
-        <v>0.523783137216532</v>
+        <v>0.1176981658154</v>
       </c>
       <c r="T11" t="n">
-        <v>0.539124425224589</v>
+        <v>0.06613738597875</v>
       </c>
       <c r="U11" t="n">
-        <v>0.499311226250694</v>
+        <v>0.0571541403961951</v>
       </c>
       <c r="V11" t="n">
-        <v>0.475741202130972</v>
+        <v>0.0599972713641705</v>
       </c>
       <c r="W11" t="n">
-        <v>0.488914124227938</v>
+        <v>0.0749676922098995</v>
       </c>
       <c r="X11" t="n">
-        <v>0.494174650055165</v>
+        <v>0.0652754123251698</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.49374534905862</v>
+        <v>0.0912231734940318</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.492625047122057</v>
+        <v>0.0839424444254553</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.524537048738218</v>
+        <v>0.0948131189275084</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.52183743796301</v>
+        <v>0.0676641182963511</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.544418421642235</v>
+        <v>0.122547415989523</v>
       </c>
     </row>
     <row r="12">
@@ -1356,55 +1356,55 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.493670973839498</v>
+        <v>0.17659291658348</v>
       </c>
       <c r="N12" t="n">
-        <v>0.439584347153233</v>
+        <v>0.177629387952407</v>
       </c>
       <c r="O12" t="n">
-        <v>0.478176312821785</v>
+        <v>0.183822420789386</v>
       </c>
       <c r="P12" t="n">
-        <v>0.460201956998897</v>
+        <v>0.164991025128258</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.477181034264966</v>
+        <v>0.194177903432136</v>
       </c>
       <c r="R12" t="n">
-        <v>0.446900332285674</v>
+        <v>0.165073503384038</v>
       </c>
       <c r="S12" t="n">
-        <v>0.472858979495312</v>
+        <v>0.187603976609996</v>
       </c>
       <c r="T12" t="n">
-        <v>0.491218507813171</v>
+        <v>0.161947583862983</v>
       </c>
       <c r="U12" t="n">
-        <v>0.450618561723008</v>
+        <v>0.159157135793687</v>
       </c>
       <c r="V12" t="n">
-        <v>0.459136327753789</v>
+        <v>0.159766063501133</v>
       </c>
       <c r="W12" t="n">
-        <v>0.43827053575815</v>
+        <v>0.16618682241076</v>
       </c>
       <c r="X12" t="n">
-        <v>0.43494063347795</v>
+        <v>0.161353663869591</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.44994423679159</v>
+        <v>0.173758583723782</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.456218168325301</v>
+        <v>0.171484076917116</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.495311228458941</v>
+        <v>0.177504378140131</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.47767452745399</v>
+        <v>0.162284838433654</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.515396721765337</v>
+        <v>0.192501744788631</v>
       </c>
     </row>
     <row r="13">
@@ -1448,52 +1448,52 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.44159297579912</v>
+        <v>0.118824981406126</v>
       </c>
       <c r="O13" t="n">
-        <v>0.476315204166564</v>
+        <v>0.128858529535999</v>
       </c>
       <c r="P13" t="n">
-        <v>0.462372460323081</v>
+        <v>0.097644398881306</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.473926670375711</v>
+        <v>0.14319369666464</v>
       </c>
       <c r="R13" t="n">
-        <v>0.449344392080224</v>
+        <v>0.096045585353055</v>
       </c>
       <c r="S13" t="n">
-        <v>0.478891598602503</v>
+        <v>0.134294271886248</v>
       </c>
       <c r="T13" t="n">
-        <v>0.493929260357686</v>
+        <v>0.0914374883311854</v>
       </c>
       <c r="U13" t="n">
-        <v>0.451753848129146</v>
+        <v>0.0883306170496493</v>
       </c>
       <c r="V13" t="n">
-        <v>0.447262584655948</v>
+        <v>0.0907565207731046</v>
       </c>
       <c r="W13" t="n">
-        <v>0.443220037550423</v>
+        <v>0.0995766618485476</v>
       </c>
       <c r="X13" t="n">
-        <v>0.449963335942305</v>
+        <v>0.0924016658679864</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.455615302927926</v>
+        <v>0.112463867203126</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.456523315597316</v>
+        <v>0.107405628691884</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.490158457380487</v>
+        <v>0.116018051425074</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.47953087136066</v>
+        <v>0.0933859215739712</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.511671909396792</v>
+        <v>0.138790495820572</v>
       </c>
     </row>
     <row r="14">
@@ -1540,49 +1540,49 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.425958682468516</v>
+        <v>0.130167347998087</v>
       </c>
       <c r="P14" t="n">
-        <v>0.407404666049021</v>
+        <v>0.0993739480389963</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.426502570494432</v>
+        <v>0.145061847979857</v>
       </c>
       <c r="R14" t="n">
-        <v>0.395130735016808</v>
+        <v>0.100986324032935</v>
       </c>
       <c r="S14" t="n">
-        <v>0.420827705626364</v>
+        <v>0.135567231541333</v>
       </c>
       <c r="T14" t="n">
-        <v>0.439919899551224</v>
+        <v>0.0944448903046886</v>
       </c>
       <c r="U14" t="n">
-        <v>0.395771774722725</v>
+        <v>0.0894059181764754</v>
       </c>
       <c r="V14" t="n">
-        <v>0.402432531744718</v>
+        <v>0.0927645384618779</v>
       </c>
       <c r="W14" t="n">
-        <v>0.378484589542933</v>
+        <v>0.100628691442875</v>
       </c>
       <c r="X14" t="n">
-        <v>0.374069844450256</v>
+        <v>0.0937637517412361</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.393012627116941</v>
+        <v>0.112426918919755</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.401010741992949</v>
+        <v>0.11013458453101</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.445607552896834</v>
+        <v>0.118010732481583</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.427244296399082</v>
+        <v>0.0949480061025905</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.469698898804092</v>
+        <v>0.141773797683131</v>
       </c>
     </row>
     <row r="15">
@@ -1632,46 +1632,46 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.446706708411083</v>
+        <v>0.111118413807419</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.463466677369967</v>
+        <v>0.15316408185649</v>
       </c>
       <c r="R15" t="n">
-        <v>0.434623372995965</v>
+        <v>0.112419562537755</v>
       </c>
       <c r="S15" t="n">
-        <v>0.458349536704537</v>
+        <v>0.144531952907403</v>
       </c>
       <c r="T15" t="n">
-        <v>0.478382417183803</v>
+        <v>0.107879738073055</v>
       </c>
       <c r="U15" t="n">
-        <v>0.438605883721939</v>
+        <v>0.102736669330584</v>
       </c>
       <c r="V15" t="n">
-        <v>0.440600990511454</v>
+        <v>0.10613662409649</v>
       </c>
       <c r="W15" t="n">
-        <v>0.421885128093873</v>
+        <v>0.11240677483598</v>
       </c>
       <c r="X15" t="n">
-        <v>0.422017552791577</v>
+        <v>0.107352388017913</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.434747782646288</v>
+        <v>0.123318845865129</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.440714187252891</v>
+        <v>0.121063465264729</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.483182781085429</v>
+        <v>0.128637856293562</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.463532810970959</v>
+        <v>0.10723566144347</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.50505588787694</v>
+        <v>0.150326130573469</v>
       </c>
     </row>
     <row r="16">
@@ -1724,43 +1724,43 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.44806244464422</v>
+        <v>0.128893856125552</v>
       </c>
       <c r="R16" t="n">
-        <v>0.407467429821284</v>
+        <v>0.0732099265512609</v>
       </c>
       <c r="S16" t="n">
-        <v>0.442187309377653</v>
+        <v>0.11822500394031</v>
       </c>
       <c r="T16" t="n">
-        <v>0.465951856793899</v>
+        <v>0.066689043819093</v>
       </c>
       <c r="U16" t="n">
-        <v>0.421736990483678</v>
+        <v>0.0589606171020675</v>
       </c>
       <c r="V16" t="n">
-        <v>0.413578991607475</v>
+        <v>0.0638806872606654</v>
       </c>
       <c r="W16" t="n">
-        <v>0.401408462256274</v>
+        <v>0.0752857498036441</v>
       </c>
       <c r="X16" t="n">
-        <v>0.404454845366446</v>
+        <v>0.0663524528664706</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.415436382531042</v>
+        <v>0.0907262148332623</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.419976890042831</v>
+        <v>0.0865433702330832</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.462906791674725</v>
+        <v>0.0970051162868872</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.443581417668919</v>
+        <v>0.0674864760291598</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.48771291215815</v>
+        <v>0.124408251838647</v>
       </c>
     </row>
     <row r="17">
@@ -1816,40 +1816,40 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.435751830594535</v>
+        <v>0.13037688639842</v>
       </c>
       <c r="S17" t="n">
-        <v>0.458878608285676</v>
+        <v>0.158420928290975</v>
       </c>
       <c r="T17" t="n">
-        <v>0.477876677915644</v>
+        <v>0.126088156228346</v>
       </c>
       <c r="U17" t="n">
-        <v>0.438198501065109</v>
+        <v>0.12097660215888</v>
       </c>
       <c r="V17" t="n">
-        <v>0.440895476791586</v>
+        <v>0.124074007572062</v>
       </c>
       <c r="W17" t="n">
-        <v>0.422865673706587</v>
+        <v>0.129907255138288</v>
       </c>
       <c r="X17" t="n">
-        <v>0.420066312491593</v>
+        <v>0.1256143429498</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.435849464548369</v>
+        <v>0.139453784245897</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.439755660185432</v>
+        <v>0.136274544612046</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.48292465266539</v>
+        <v>0.143075550509547</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.462796790197826</v>
+        <v>0.125430786242508</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.506580845214461</v>
+        <v>0.162951089303009</v>
       </c>
     </row>
     <row r="18">
@@ -1908,37 +1908,37 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.426484429524375</v>
+        <v>0.118771010667407</v>
       </c>
       <c r="T18" t="n">
-        <v>0.454438849573729</v>
+        <v>0.0701846049142627</v>
       </c>
       <c r="U18" t="n">
-        <v>0.406167159608731</v>
+        <v>0.0640316614111119</v>
       </c>
       <c r="V18" t="n">
-        <v>0.398454814340582</v>
+        <v>0.0664480907243777</v>
       </c>
       <c r="W18" t="n">
-        <v>0.383055722655945</v>
+        <v>0.0764000461340947</v>
       </c>
       <c r="X18" t="n">
-        <v>0.38639348437977</v>
+        <v>0.069338109396478</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.400007615756493</v>
+        <v>0.092075542697088</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.410748782032513</v>
+        <v>0.0896470976099345</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.455866111688701</v>
+        <v>0.0993141852542818</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.430650636402826</v>
+        <v>0.0690304392411958</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.477669432881433</v>
+        <v>0.125813126981826</v>
       </c>
     </row>
     <row r="19">
@@ -2000,34 +2000,34 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.481626305229049</v>
+        <v>0.11480836676552</v>
       </c>
       <c r="U19" t="n">
-        <v>0.440482810874418</v>
+        <v>0.11243127752948</v>
       </c>
       <c r="V19" t="n">
-        <v>0.434260451540309</v>
+        <v>0.112129096141694</v>
       </c>
       <c r="W19" t="n">
-        <v>0.414907176561355</v>
+        <v>0.118780870589767</v>
       </c>
       <c r="X19" t="n">
-        <v>0.418201269665469</v>
+        <v>0.114125296622161</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.432405412765668</v>
+        <v>0.129067600927975</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.438053211960136</v>
+        <v>0.128324246037288</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.479812407190193</v>
+        <v>0.13513500807941</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.458317618460776</v>
+        <v>0.114313939254635</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.503913750096598</v>
+        <v>0.155460330153891</v>
       </c>
     </row>
     <row r="20">
@@ -2092,31 +2092,31 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.452630965127191</v>
+        <v>0.0487619849138217</v>
       </c>
       <c r="V20" t="n">
-        <v>0.43297452814552</v>
+        <v>0.055674197330958</v>
       </c>
       <c r="W20" t="n">
-        <v>0.413641985012971</v>
+        <v>0.0684647656662618</v>
       </c>
       <c r="X20" t="n">
-        <v>0.428306182581474</v>
+        <v>0.0563358165290613</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.425462386039022</v>
+        <v>0.084744578875953</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.460087491829967</v>
+        <v>0.0812129244173376</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.481087411544345</v>
+        <v>0.0925163126510513</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.459083087131903</v>
+        <v>0.0598649896176383</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.516096455256722</v>
+        <v>0.122007250546786</v>
       </c>
     </row>
     <row r="21">
@@ -2184,28 +2184,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.420331676709142</v>
+        <v>0.0470017228915876</v>
       </c>
       <c r="W21" t="n">
-        <v>0.395693010581943</v>
+        <v>0.060446794135618</v>
       </c>
       <c r="X21" t="n">
-        <v>0.393127765211906</v>
+        <v>0.0485965266990746</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.412473411632288</v>
+        <v>0.0785784508618635</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.417353229102189</v>
+        <v>0.0762668231699028</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.443410095620204</v>
+        <v>0.087458666178882</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.433925453364273</v>
+        <v>0.0517995556512917</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.466760775775853</v>
+        <v>0.117983811559092</v>
       </c>
     </row>
     <row r="22">
@@ -2276,25 +2276,25 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.39791994991338</v>
+        <v>0.06686896123048</v>
       </c>
       <c r="X22" t="n">
-        <v>0.398532633700056</v>
+        <v>0.0560331941631214</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.411656807180435</v>
+        <v>0.0838753545345758</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.415736527922319</v>
+        <v>0.0799758933321198</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.458460936915186</v>
+        <v>0.0909535562206852</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.442316816837778</v>
+        <v>0.05796482427251</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.482231580903149</v>
+        <v>0.120013150235241</v>
       </c>
     </row>
     <row r="23">
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.37146239704671</v>
+        <v>0.0688742968501185</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.387210248012853</v>
+        <v>0.0918027473390037</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.397381757593406</v>
+        <v>0.088072482664428</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.444949727243252</v>
+        <v>0.0989977032346298</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.422959593454588</v>
+        <v>0.0695156644060884</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.468617304440926</v>
+        <v>0.126607142583859</v>
       </c>
     </row>
     <row r="24">
@@ -2460,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.386986971581544</v>
+        <v>0.0843659134514465</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.384351190122977</v>
+        <v>0.0787597803717069</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.431499529030254</v>
+        <v>0.0896073451271419</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.406521678114336</v>
+        <v>0.0558926384623908</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.459217881214329</v>
+        <v>0.119813538991948</v>
       </c>
     </row>
     <row r="25">
@@ -2552,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.405268471527778</v>
+        <v>0.101238146128124</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.448827697370417</v>
+        <v>0.108764907974751</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.430373310226862</v>
+        <v>0.0859489036717419</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.473548267559974</v>
+        <v>0.134176205707621</v>
       </c>
     </row>
     <row r="26">
@@ -2644,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.460365137966777</v>
+        <v>0.108180897005288</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.441896692241581</v>
+        <v>0.0827634523636149</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.486451702593107</v>
+        <v>0.133181500250377</v>
       </c>
     </row>
     <row r="27">
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.482453908475353</v>
+        <v>0.0933138142829324</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.516547957634452</v>
+        <v>0.140619665239226</v>
       </c>
     </row>
     <row r="28">
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.501765501475031</v>
+        <v>0.121848188159725</v>
       </c>
     </row>
     <row r="29">
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
+        <v>225</v>
+      </c>
+      <c r="C1" t="n">
         <v>180</v>
-      </c>
-      <c r="C1" t="n">
-        <v>135</v>
       </c>
       <c r="D1" t="n">
         <v>135</v>
@@ -2963,7 +2963,7 @@
         <v>270</v>
       </c>
       <c r="J1" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="K1" t="n">
         <v>180</v>
@@ -2993,7 +2993,7 @@
         <v>90</v>
       </c>
       <c r="T1" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="U1" t="n">
         <v>90</v>
@@ -3005,7 +3005,7 @@
         <v>270</v>
       </c>
       <c r="X1" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y1" t="n">
         <v>270</v>
@@ -3014,7 +3014,7 @@
         <v>225</v>
       </c>
       <c r="AA1" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="AB1" t="n">
         <v>270</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D2" t="n">
         <v>270</v>
@@ -3040,58 +3040,58 @@
         <v>315</v>
       </c>
       <c r="F2" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="G2" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K2" t="n">
         <v>315</v>
       </c>
       <c r="L2" t="n">
+        <v>270</v>
+      </c>
+      <c r="M2" t="n">
+        <v>180</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>90</v>
+      </c>
+      <c r="P2" t="n">
         <v>45</v>
       </c>
-      <c r="M2" t="n">
+      <c r="Q2" t="n">
         <v>225</v>
       </c>
-      <c r="N2" t="n">
-        <v>315</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>180</v>
-      </c>
       <c r="R2" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="S2" t="n">
         <v>225</v>
       </c>
       <c r="T2" t="n">
+        <v>135</v>
+      </c>
+      <c r="U2" t="n">
         <v>180</v>
       </c>
-      <c r="U2" t="n">
-        <v>135</v>
-      </c>
       <c r="V2" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="W2" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="X2" t="n">
         <v>270</v>
@@ -3100,7 +3100,7 @@
         <v>90</v>
       </c>
       <c r="Z2" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>270</v>
       </c>
       <c r="H3" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="I3" t="n">
         <v>90</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>225</v>
@@ -3156,16 +3156,16 @@
         <v>135</v>
       </c>
       <c r="O3" t="n">
+        <v>135</v>
+      </c>
+      <c r="P3" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>270</v>
+      </c>
+      <c r="R3" t="n">
         <v>180</v>
-      </c>
-      <c r="P3" t="n">
-        <v>135</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>225</v>
-      </c>
-      <c r="R3" t="n">
-        <v>225</v>
       </c>
       <c r="S3" t="n">
         <v>270</v>
@@ -3174,16 +3174,16 @@
         <v>180</v>
       </c>
       <c r="U3" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="V3" t="n">
         <v>135</v>
       </c>
       <c r="W3" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="X3" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y3" t="n">
         <v>135</v>
@@ -3198,7 +3198,7 @@
         <v>90</v>
       </c>
       <c r="AC3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3218,13 +3218,13 @@
         <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="H4" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="I4" t="n">
         <v>135</v>
@@ -3242,19 +3242,19 @@
         <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O4" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="P4" t="n">
         <v>135</v>
       </c>
       <c r="Q4" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="R4" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="S4" t="n">
         <v>315</v>
@@ -3263,7 +3263,7 @@
         <v>225</v>
       </c>
       <c r="U4" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="V4" t="n">
         <v>180</v>
@@ -3275,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="Z4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
         <v>90</v>
@@ -3287,7 +3287,7 @@
         <v>135</v>
       </c>
       <c r="AC4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -3307,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="G5" t="n">
         <v>135</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I5" t="n">
         <v>45</v>
@@ -3322,31 +3322,31 @@
         <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="L5" t="n">
         <v>270</v>
       </c>
       <c r="M5" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>90</v>
+      </c>
+      <c r="P5" t="n">
         <v>45</v>
-      </c>
-      <c r="P5" t="n">
-        <v>135</v>
       </c>
       <c r="Q5" t="n">
         <v>225</v>
       </c>
       <c r="R5" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="T5" t="n">
         <v>180</v>
@@ -3355,22 +3355,22 @@
         <v>180</v>
       </c>
       <c r="V5" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="W5" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="X5" t="n">
         <v>270</v>
       </c>
       <c r="Y5" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>45</v>
@@ -3402,7 +3402,7 @@
         <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="I6" t="n">
         <v>270</v>
@@ -3411,13 +3411,13 @@
         <v>315</v>
       </c>
       <c r="K6" t="n">
+        <v>180</v>
+      </c>
+      <c r="L6" t="n">
         <v>135</v>
       </c>
-      <c r="L6" t="n">
-        <v>180</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
         <v>270</v>
@@ -3429,43 +3429,43 @@
         <v>270</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>90</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>180</v>
+      </c>
+      <c r="V6" t="n">
+        <v>315</v>
+      </c>
+      <c r="W6" t="n">
+        <v>270</v>
+      </c>
+      <c r="X6" t="n">
         <v>135</v>
       </c>
-      <c r="T6" t="n">
-        <v>270</v>
-      </c>
-      <c r="U6" t="n">
-        <v>90</v>
-      </c>
-      <c r="V6" t="n">
-        <v>270</v>
-      </c>
-      <c r="W6" t="n">
-        <v>270</v>
-      </c>
-      <c r="X6" t="n">
-        <v>45</v>
-      </c>
       <c r="Y6" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="Z6" t="n">
         <v>225</v>
       </c>
       <c r="AA6" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AC6" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -3497,7 +3497,7 @@
         <v>270</v>
       </c>
       <c r="J7" t="n">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="K7" t="n">
         <v>135</v>
@@ -3518,7 +3518,7 @@
         <v>225</v>
       </c>
       <c r="Q7" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R7" t="n">
         <v>315</v>
@@ -3527,19 +3527,19 @@
         <v>90</v>
       </c>
       <c r="T7" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="U7" t="n">
         <v>45</v>
       </c>
       <c r="V7" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="W7" t="n">
         <v>225</v>
       </c>
       <c r="X7" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>225</v>
@@ -3551,10 +3551,10 @@
         <v>135</v>
       </c>
       <c r="AB7" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>225</v>
@@ -3607,7 +3607,7 @@
         <v>315</v>
       </c>
       <c r="Q8" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R8" t="n">
         <v>45</v>
@@ -3616,7 +3616,7 @@
         <v>180</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U8" t="n">
         <v>135</v>
@@ -3628,22 +3628,22 @@
         <v>315</v>
       </c>
       <c r="X8" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>270</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB8" t="n">
         <v>315</v>
       </c>
-      <c r="Z8" t="n">
-        <v>270</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
         <v>225</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -3684,7 +3684,7 @@
         <v>225</v>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="N9" t="n">
         <v>315</v>
@@ -3705,7 +3705,7 @@
         <v>180</v>
       </c>
       <c r="T9" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="U9" t="n">
         <v>135</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
         <v>315</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Q10" t="n">
         <v>180</v>
@@ -3791,7 +3791,7 @@
         <v>45</v>
       </c>
       <c r="S10" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="T10" t="n">
         <v>135</v>
@@ -3800,28 +3800,28 @@
         <v>135</v>
       </c>
       <c r="V10" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="W10" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="X10" t="n">
         <v>225</v>
       </c>
       <c r="Y10" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="Z10" t="n">
         <v>270</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>180</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
@@ -3865,7 +3865,7 @@
         <v>225</v>
       </c>
       <c r="N11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="O11" t="n">
         <v>135</v>
@@ -3886,7 +3886,7 @@
         <v>180</v>
       </c>
       <c r="U11" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="V11" t="n">
         <v>135</v>
@@ -3898,7 +3898,7 @@
         <v>315</v>
       </c>
       <c r="Y11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Z11" t="n">
         <v>45</v>
@@ -3966,25 +3966,25 @@
         <v>315</v>
       </c>
       <c r="R12" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="S12" t="n">
         <v>315</v>
       </c>
       <c r="T12" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="U12" t="n">
         <v>270</v>
       </c>
       <c r="V12" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="W12" t="n">
         <v>90</v>
       </c>
       <c r="X12" t="n">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="Y12" t="n">
         <v>90</v>
@@ -3993,13 +3993,13 @@
         <v>45</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB12" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="O13" t="n">
         <v>270</v>
@@ -4052,10 +4052,10 @@
         <v>225</v>
       </c>
       <c r="Q13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="S13" t="n">
         <v>45</v>
@@ -4064,7 +4064,7 @@
         <v>315</v>
       </c>
       <c r="U13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="V13" t="n">
         <v>270</v>
@@ -4073,7 +4073,7 @@
         <v>225</v>
       </c>
       <c r="X13" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
         <v>225</v>
@@ -4082,7 +4082,7 @@
         <v>180</v>
       </c>
       <c r="AA13" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="n">
         <v>225</v>
@@ -4147,7 +4147,7 @@
         <v>90</v>
       </c>
       <c r="S14" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="T14" t="n">
         <v>45</v>
@@ -4156,25 +4156,25 @@
         <v>180</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="Y14" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>315</v>
       </c>
       <c r="AA14" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AB14" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>225</v>
@@ -4230,7 +4230,7 @@
         <v>315</v>
       </c>
       <c r="Q15" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R15" t="n">
         <v>45</v>
@@ -4239,7 +4239,7 @@
         <v>135</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U15" t="n">
         <v>135</v>
@@ -4251,7 +4251,7 @@
         <v>315</v>
       </c>
       <c r="X15" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="n">
         <v>315</v>
@@ -4266,7 +4266,7 @@
         <v>315</v>
       </c>
       <c r="AC15" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16">
@@ -4328,10 +4328,10 @@
         <v>180</v>
       </c>
       <c r="T16" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="U16" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="V16" t="n">
         <v>45</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>270</v>
       </c>
       <c r="AB16" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
         <v>270</v>
@@ -4414,37 +4414,37 @@
         <v>270</v>
       </c>
       <c r="S17" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="U17" t="n">
         <v>315</v>
       </c>
       <c r="V17" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="W17" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="X17" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="n">
         <v>135</v>
       </c>
       <c r="AA17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="AB17" t="n">
         <v>180</v>
       </c>
       <c r="AC17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -4506,10 +4506,10 @@
         <v>90</v>
       </c>
       <c r="T18" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="V18" t="n">
         <v>315</v>
@@ -4518,7 +4518,7 @@
         <v>270</v>
       </c>
       <c r="X18" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="Y18" t="n">
         <v>270</v>
@@ -4533,7 +4533,7 @@
         <v>270</v>
       </c>
       <c r="AC18" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -4598,7 +4598,7 @@
         <v>270</v>
       </c>
       <c r="U19" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="V19" t="n">
         <v>225</v>
@@ -4610,19 +4610,19 @@
         <v>45</v>
       </c>
       <c r="Y19" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="Z19" t="n">
         <v>135</v>
       </c>
       <c r="AA19" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
         <v>180</v>
       </c>
       <c r="AC19" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -4687,28 +4687,28 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V20" t="n">
         <v>315</v>
       </c>
       <c r="W20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="X20" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z20" t="n">
+        <v>225</v>
+      </c>
+      <c r="AA20" t="n">
         <v>180</v>
       </c>
-      <c r="AA20" t="n">
-        <v>225</v>
-      </c>
       <c r="AB20" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AC20" t="n">
         <v>180</v>
@@ -4779,28 +4779,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="W21" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="X21" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="n">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="n">
         <v>135</v>
       </c>
       <c r="AA21" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="AB21" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AC21" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22">
@@ -4874,7 +4874,7 @@
         <v>315</v>
       </c>
       <c r="X22" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="n">
         <v>315</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         <v>270</v>
       </c>
       <c r="AB23" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
@@ -5153,7 +5153,7 @@
         <v>270</v>
       </c>
       <c r="AB25" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
         <v>270</v>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
